--- a/data/ResourceSheet.xlsx
+++ b/data/ResourceSheet.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sachinsoni/GitHubRepoPersonal/resource_schedulerbkup/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sachinsoni/GitHubRepoPersonal/resource_scheduler/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CDEE10-43B7-2547-929C-77B35E3A107B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B737C96E-8A9E-174D-809A-2D791B57175A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resource" sheetId="1" r:id="rId1"/>
-    <sheet name="PTO" sheetId="2" r:id="rId2"/>
+    <sheet name="TimeOff" sheetId="2" r:id="rId2"/>
     <sheet name="Holiday" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>ResourceId</t>
   </si>
@@ -30,24 +30,12 @@
     <t>ResourceName</t>
   </si>
   <si>
-    <t>GreenTime</t>
-  </si>
-  <si>
-    <t>YellowTime</t>
-  </si>
-  <si>
-    <t>RedTime</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>PTODate</t>
-  </si>
-  <si>
     <t>HolidayDate</t>
   </si>
   <si>
@@ -55,6 +43,12 @@
   </si>
   <si>
     <t>Shusant Jain</t>
+  </si>
+  <si>
+    <t>WorkingTime</t>
+  </si>
+  <si>
+    <t>TimeOffDate</t>
   </si>
 </sst>
 </file>
@@ -419,18 +413,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,47 +433,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
-      <c r="D2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
       <c r="C3">
         <v>6</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -488,44 +465,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>45854</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>45855</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>45856</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +538,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/data/ResourceSheet.xlsx
+++ b/data/ResourceSheet.xlsx
@@ -1,78 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sachinsoni/GitHubRepoPersonal/resource_scheduler/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B737C96E-8A9E-174D-809A-2D791B57175A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Resource" sheetId="1" r:id="rId1"/>
-    <sheet name="TimeOff" sheetId="2" r:id="rId2"/>
-    <sheet name="Holiday" sheetId="3" r:id="rId3"/>
+    <sheet name="Resource" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TimeOff" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Holiday" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
-  <si>
-    <t>ResourceId</t>
-  </si>
-  <si>
-    <t>ResourceName</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>HolidayDate</t>
-  </si>
-  <si>
-    <t>Jon Felcon</t>
-  </si>
-  <si>
-    <t>Shusant Jain</t>
-  </si>
-  <si>
-    <t>WorkingTime</t>
-  </si>
-  <si>
-    <t>TimeOffDate</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,44 +51,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,50 +426,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ResourceId</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ResourceName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>WorkingHrs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jon Felcon</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Shusant Jain</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>6</v>
       </c>
-      <c r="C3">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Helam</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -464,60 +522,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ResourceId</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TimeOffDate</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>WorkingHrs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45854</v>
-      </c>
-      <c r="C2">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45855</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>45856</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -527,22 +597,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>HolidayDate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>45870</v>
       </c>
     </row>

--- a/data/ResourceSheet.xlsx
+++ b/data/ResourceSheet.xlsx
@@ -1,42 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sachinsoni/GitHubRepoPersonal/resource_scheduler/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D765CA4D-41D9-D441-B8B3-0AC59F2FE82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resource" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="TimeOff" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Holiday" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Resource" sheetId="1" r:id="rId1"/>
+    <sheet name="TimeOff" sheetId="2" r:id="rId2"/>
+    <sheet name="Holiday" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+  <si>
+    <t>ResourceId</t>
+  </si>
+  <si>
+    <t>ResourceName</t>
+  </si>
+  <si>
+    <t>WorkingHrs</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Jon Felcon</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Shusant Jain</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Helam</t>
+  </si>
+  <si>
+    <t>TimeOffDate</t>
+  </si>
+  <si>
+    <t>HolidayDate</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,94 +102,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -426,93 +427,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ResourceId</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ResourceName</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>WorkingHrs</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Jon Felcon</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Shusant Jain</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="C3">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Helam</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
     </row>
@@ -522,73 +495,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ResourceId</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TimeOffDate</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>WorkingHrs</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
         <v>45854</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
         <v>45855</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
         <v>45856</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45868</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45875</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -597,28 +577,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>HolidayDate</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>45870</v>
       </c>
     </row>
